--- a/1.암임상라이브러리/2.유방암/1.유방암테이블정의서.xlsx
+++ b/1.암임상라이브러리/2.유방암/1.유방암테이블정의서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050" tabRatio="672" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12050" tabRatio="672" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="34" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="197">
   <si>
     <t>대분류</t>
   </si>
@@ -787,6 +787,23 @@
   <si>
     <t>방사선</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.02.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>유방암테이블컬럼정의서(최종본)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNA변이정보A값(DNA_VAINF_A_VL)  컬럼의 
+데이터타입 NUMERIC(10,3)-&gt;VARCHAR(200) 값VC200 으로 변경</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1110,7 +1127,7 @@
     <cellStyle name="표준 7 3 3" xfId="10"/>
     <cellStyle name="표준 7 4" xfId="9"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1136,13 +1153,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1429,11 +1439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2077,6 +2087,29 @@
       </c>
       <c r="G28" s="19" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2130,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.08203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2853,7 +2886,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1:J1">
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>$A1="유방암"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2878,6 +2911,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>